--- a/Basico/practice-files/Sesión 05/Importes vendidos.xlsx
+++ b/Basico/practice-files/Sesión 05/Importes vendidos.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Rodriguez\Desktop\EXCEL 2016\_MANUAL CALCULANDO EXCEL\Archivos\Capítulo 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Basico\practice-files\Sesión 05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC4E25A-5820-4F95-BE57-2E07FE24318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="6795" windowHeight="6405"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Italia</t>
   </si>
@@ -53,16 +60,31 @@
   <si>
     <t>España</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -84,18 +106,25 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,14 +136,8 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -174,6 +197,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -181,38 +274,335 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Euro" xfId="1"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="3" builtinId="10"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -225,10 +615,1317 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>España</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Francia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alemania</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Méjico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Peru</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Brasil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>_ "$"\ * #,##0.00_ ;_ "$"\ * \-#,##0.00_ ;_ "$"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A84-4E76-8A28-137FB3742302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>España</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Francia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alemania</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Méjico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Peru</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Brasil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>_ "$"\ * #,##0.00_ ;_ "$"\ * \-#,##0.00_ ;_ "$"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>173400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>216300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>395900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>442800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>490500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A84-4E76-8A28-137FB3742302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>España</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Francia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alemania</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Méjico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Peru</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Brasil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>_ "$"\ * #,##0.00_ ;_ "$"\ * \-#,##0.00_ ;_ "$"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>298700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>374400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>451500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>530000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>609900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>691200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>773900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A84-4E76-8A28-137FB3742302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>España</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Francia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Alemania</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Méjico</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Peru</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Chile</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Brasil</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>_ "$"\ * #,##0.00_ ;_ "$"\ * \-#,##0.00_ ;_ "$"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>171700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>488800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>598500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>710200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>823900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>939600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1057300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2A84-4E76-8A28-137FB3742302}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="706430655"/>
+        <c:axId val="706432095"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="706430655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706432095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="706432095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="706430655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6BD73B89-AB7E-406C-8B92-0FA8B4E44A34}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662601" cy="6281351"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A8B298-CDCD-A6C8-284A-D773EC00F03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FC06D6D-3A43-47BC-971A-F42F53954CFE}" name="Table1" displayName="Table1" ref="A3:E13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7" headerRowCellStyle="Note" dataCellStyle="Currency">
+  <autoFilter ref="A3:E13" xr:uid="{6FC06D6D-3A43-47BC-971A-F42F53954CFE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DDC08571-93C4-4DE8-ACD9-89A04F343EC5}" name="Column1" dataDxfId="5" dataCellStyle="Note"/>
+    <tableColumn id="2" xr3:uid="{214429CA-BA98-418D-BC85-791D63F32077}" name="2012" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{5A202BA7-D12E-427B-B6A0-347BF5CE25BD}" name="2013" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{D5068AE8-D575-4012-BB21-850209168F37}" name="2014" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{0F2C16AE-0BEA-4560-BB43-DC171DF6709A}" name="2015" dataDxfId="1" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,9 +1963,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +2000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,7 +2035,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,47 +2208,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5">
-        <v>2012</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2013</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2014</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2015</v>
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4">
@@ -563,12 +2262,12 @@
       <c r="D4" s="4">
         <v>80000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4">
@@ -580,12 +2279,12 @@
       <c r="D5" s="4">
         <v>151500</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>171700</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4">
@@ -597,12 +2296,12 @@
       <c r="D6" s="4">
         <v>224400</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>275400</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="4">
@@ -614,12 +2313,12 @@
       <c r="D7" s="4">
         <v>298700</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>381100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4">
@@ -631,12 +2330,12 @@
       <c r="D8" s="4">
         <v>374400</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>488800</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4">
@@ -648,12 +2347,12 @@
       <c r="D9" s="4">
         <v>451500</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>598500</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4">
@@ -665,12 +2364,12 @@
       <c r="D10" s="4">
         <v>530000</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>710200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4">
@@ -682,12 +2381,12 @@
       <c r="D11" s="4">
         <v>609900</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>823900</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4">
@@ -699,7 +2398,7 @@
       <c r="D12" s="4">
         <v>691200</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>939600</v>
       </c>
     </row>
@@ -707,16 +2406,16 @@
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>207100</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>490500</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>773900</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>1057300</v>
       </c>
     </row>
@@ -728,5 +2427,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>